--- a/Octopus_list.xlsx
+++ b/Octopus_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="157" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="140" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="549">
   <si>
     <t>Study</t>
   </si>
@@ -440,6 +440,9 @@
     <t>SRR398024</t>
   </si>
   <si>
+    <t>STAT5A-rep_OverExp-GH_mm9_MEF_GSM860161_22319210_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>GSE27158</t>
   </si>
   <si>
@@ -612,6 +615,1053 @@
   </si>
   <si>
     <t>SRR1248086</t>
+  </si>
+  <si>
+    <t>H3K4me2_preadipo-4hr_mm9_3T3-L1_GSM1370474_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE40930</t>
+  </si>
+  <si>
+    <t>Mammary</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>GSM1005189</t>
+  </si>
+  <si>
+    <t>SRR572221</t>
+  </si>
+  <si>
+    <t>STAT5A_L1_mm9_Mammary_GSM1005189_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1005190</t>
+  </si>
+  <si>
+    <t>SRR572222</t>
+  </si>
+  <si>
+    <t>STAT5B_L1_mm9_Mammary_GSM1005190_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>PolII</t>
+  </si>
+  <si>
+    <t>GSM1005191</t>
+  </si>
+  <si>
+    <t>SRR572223</t>
+  </si>
+  <si>
+    <t>PolII_L1_mm9_Mammary_GSM1005191_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>H3K4me3</t>
+  </si>
+  <si>
+    <t>GSM1005192</t>
+  </si>
+  <si>
+    <t>SRR572224</t>
+  </si>
+  <si>
+    <t>H3K4me3_L1_mm9_Mammary_GSM1005192_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1005193</t>
+  </si>
+  <si>
+    <t>SRR572225</t>
+  </si>
+  <si>
+    <t>Input_L1-S5AKO_mm9_Mammary_GSM1005193_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>L1-S5AKO</t>
+  </si>
+  <si>
+    <t>GSM1005194</t>
+  </si>
+  <si>
+    <t>SRR572226</t>
+  </si>
+  <si>
+    <t>STAT5A_L1-S5AKO_mm9_Mammary_GSM1005194_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1005195</t>
+  </si>
+  <si>
+    <t>SRR572227</t>
+  </si>
+  <si>
+    <t>STAT5B_L1-S5AKO_mm9_Mammary_GSM1005195_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1005196</t>
+  </si>
+  <si>
+    <t>SRR572228</t>
+  </si>
+  <si>
+    <t>PolII_L1-S5AKO_mm9_Mammary_GSM1005196_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1005197</t>
+  </si>
+  <si>
+    <t>SRR572229</t>
+  </si>
+  <si>
+    <t>H3K4me3_L1-S5AKO_mm9_Mammary_GSM1005197_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1005198</t>
+  </si>
+  <si>
+    <t>SRR572230</t>
+  </si>
+  <si>
+    <t>Input_L1-S5AKO_mm9_Mammary_GSM1005198_23275557_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE33913</t>
+  </si>
+  <si>
+    <t>BMMacrophage</t>
+  </si>
+  <si>
+    <t>GSM838681</t>
+  </si>
+  <si>
+    <t>SRR384983</t>
+  </si>
+  <si>
+    <t>STAT1_Untreated_mm9_BMMacrophage_GSM838681_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM838682</t>
+  </si>
+  <si>
+    <t>SRR384984</t>
+  </si>
+  <si>
+    <t>IFNg-6hr</t>
+  </si>
+  <si>
+    <t>GSM838683</t>
+  </si>
+  <si>
+    <t>SRR384985</t>
+  </si>
+  <si>
+    <t>STAT1_IFNg-6hr_mm9_BMMacrophage_GSM838683_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM838684</t>
+  </si>
+  <si>
+    <t>SRR384986</t>
+  </si>
+  <si>
+    <t>Input_IFNg-6hr_mm9_BMMacrophage_GSM838684_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>IFNb-6hr</t>
+  </si>
+  <si>
+    <t>GSM838685</t>
+  </si>
+  <si>
+    <t>SRR384987</t>
+  </si>
+  <si>
+    <t>STAT1_IFNb-6hr_mm9_BMMacrophage_GSM838685_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM838686</t>
+  </si>
+  <si>
+    <t>SRR384988</t>
+  </si>
+  <si>
+    <t>Input_IFNb-6hr_mm9_BMMacrophage_GSM838686_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>IkkKOBMM</t>
+  </si>
+  <si>
+    <t>GSM838687</t>
+  </si>
+  <si>
+    <t>SRR384989</t>
+  </si>
+  <si>
+    <t>STAT1_Untreated_mm9_IkkKOBMM_GSM838687_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM838688</t>
+  </si>
+  <si>
+    <t>SRR384990</t>
+  </si>
+  <si>
+    <t>Input_Untreated_mm9_IkkKOBMM_GSM838688_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM838689</t>
+  </si>
+  <si>
+    <t>SRR384991</t>
+  </si>
+  <si>
+    <t>STAT1_IFNg-6hr_mm9_IkkKOBMM_GSM838689_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM838690</t>
+  </si>
+  <si>
+    <t>SRR384992</t>
+  </si>
+  <si>
+    <t>Input_IFNg-6hr_mm9_IkkKOBMM_GSM838690_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM838691</t>
+  </si>
+  <si>
+    <t>SRR384993</t>
+  </si>
+  <si>
+    <t>STAT1_IFNb-6hr_mm9_IkkKOBMM_GSM838691_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM838692</t>
+  </si>
+  <si>
+    <t>SRR384994</t>
+  </si>
+  <si>
+    <t>Input_IFNb-6hr_mm9_IkkKOBMM_GSM838692_22171011_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE36882</t>
+  </si>
+  <si>
+    <t>TotalTcells</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>GSM904756</t>
+  </si>
+  <si>
+    <t>SRR449437</t>
+  </si>
+  <si>
+    <t>IgG_Control_mm9_TotalTcells_GSM904756_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904757</t>
+  </si>
+  <si>
+    <t>SRR449438</t>
+  </si>
+  <si>
+    <t>STAT5A_Control_mm9_TotalTcells_GSM904757_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904758</t>
+  </si>
+  <si>
+    <t>SRR449439</t>
+  </si>
+  <si>
+    <t>STAT5B_Control_mm9_TotalTcells_GSM904758_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904759</t>
+  </si>
+  <si>
+    <t>SRR449440</t>
+  </si>
+  <si>
+    <t>IgG_IL2_mm9_TotalTcells_GSM904759_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904760</t>
+  </si>
+  <si>
+    <t>SRR449441</t>
+  </si>
+  <si>
+    <t>STAT5A_IL2_mm9_TotalTcells_GSM904760_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904761</t>
+  </si>
+  <si>
+    <t>SRR449442</t>
+  </si>
+  <si>
+    <t>STAT5B_IL2_mm9_TotalTcells_GSM904761_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>Control-DKI</t>
+  </si>
+  <si>
+    <t>GSM904762</t>
+  </si>
+  <si>
+    <t>SRR449443</t>
+  </si>
+  <si>
+    <t>IgG-DKI_Control_mm9_TotalTcells_GSM904762_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904763</t>
+  </si>
+  <si>
+    <t>SRR449444</t>
+  </si>
+  <si>
+    <t>STAT5A-DKI_Control_mm9_TotalTcells_GSM904763_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904764</t>
+  </si>
+  <si>
+    <t>SRR449445</t>
+  </si>
+  <si>
+    <t>STAT5B-DKI_Control_mm9_TotalTcells_GSM904764_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>IL2-DKI</t>
+  </si>
+  <si>
+    <t>GSM904765</t>
+  </si>
+  <si>
+    <t>SRR449446</t>
+  </si>
+  <si>
+    <t>IgG-DKI_IL2_mm9_TotalTcells_GSM904765_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904766</t>
+  </si>
+  <si>
+    <t>SRR449447</t>
+  </si>
+  <si>
+    <t>STAT5A-DKI_IL2_mm9_TotalTcells_GSM904766_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM904767</t>
+  </si>
+  <si>
+    <t>SRR449448</t>
+  </si>
+  <si>
+    <t>STAT5B-DKI_IL2_mm9_TotalTcells_GSM904767_22520852_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE48685</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>GSM1183562</t>
+  </si>
+  <si>
+    <t>SRR930373</t>
+  </si>
+  <si>
+    <t>H3K4me3_p6_mm9_Mammary_GSM1183562_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1183563</t>
+  </si>
+  <si>
+    <t>SRR930374</t>
+  </si>
+  <si>
+    <t>Input_p6_mm9_Mammary_GSM1183563_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1183564</t>
+  </si>
+  <si>
+    <t>SRR930375</t>
+  </si>
+  <si>
+    <t>STAT5A_p6_mm9_Mammary_GSM1183564_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1295560</t>
+  </si>
+  <si>
+    <t>SRR1055880</t>
+  </si>
+  <si>
+    <t>H3K4me3_L1_mm9_Mammary_GSM1295560_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1295561</t>
+  </si>
+  <si>
+    <t>SRR1055881</t>
+  </si>
+  <si>
+    <t>Input_L1_mm9_Mammary_GSM1295561_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1295562</t>
+  </si>
+  <si>
+    <t>SRR1055882</t>
+  </si>
+  <si>
+    <t>STAT5A_L1_mm9_Mammary_GSM1295562_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>GSM1295563</t>
+  </si>
+  <si>
+    <t>SRR1055883</t>
+  </si>
+  <si>
+    <t>Input_p13_mm9_Mammary_GSM1295563_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1295564</t>
+  </si>
+  <si>
+    <t>SRR1055884</t>
+  </si>
+  <si>
+    <t>STAT5A_p13_mm9_Mammary_GSM1295564_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>MECs</t>
+  </si>
+  <si>
+    <t>GSM1295565</t>
+  </si>
+  <si>
+    <t>SRR1055885</t>
+  </si>
+  <si>
+    <t>H3K4me3_p13_mm9_MECs_GSM1295565_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM1295566</t>
+  </si>
+  <si>
+    <t>SRR1055886</t>
+  </si>
+  <si>
+    <t>Input_p13_mm9_MECs_GSM1295566_24277936_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE27161</t>
+  </si>
+  <si>
+    <t>DCs</t>
+  </si>
+  <si>
+    <t>GSM671414</t>
+  </si>
+  <si>
+    <t>SRR099051</t>
+  </si>
+  <si>
+    <t>STAT3_control_mm9_DCs_GSM671414_23453633_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>IL21</t>
+  </si>
+  <si>
+    <t>GSM671415</t>
+  </si>
+  <si>
+    <t>SRR099052</t>
+  </si>
+  <si>
+    <t>STAT3_IL21_mm9_DCs_GSM671415_23453633_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>IL21nGMCSF</t>
+  </si>
+  <si>
+    <t>GSM671416</t>
+  </si>
+  <si>
+    <t>SRR099053</t>
+  </si>
+  <si>
+    <t>STAT3_IL21nGMCSF_mm9_DCs_GSM671416_23453633_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM671417</t>
+  </si>
+  <si>
+    <t>SRR099054</t>
+  </si>
+  <si>
+    <t>STAT5B_control_mm9_DCs_GSM671417_23453633_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GMCSF</t>
+  </si>
+  <si>
+    <t>GSM671418</t>
+  </si>
+  <si>
+    <t>SRR099055</t>
+  </si>
+  <si>
+    <t>STAT5B_GMCSF_mm9_DCs_GSM671418_23453633_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM671419</t>
+  </si>
+  <si>
+    <t>SRR099056</t>
+  </si>
+  <si>
+    <t>STAT5B_IL21nGMCSF_mm9_DCs_GSM671419_23453633_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE21669</t>
+  </si>
+  <si>
+    <t>Th17Tcells</t>
+  </si>
+  <si>
+    <t>GSM540720</t>
+  </si>
+  <si>
+    <t>SRR271943</t>
+  </si>
+  <si>
+    <t>H3K4me3_Control_mm9_Th17Tcells_GSM540720_20493732_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM540722</t>
+  </si>
+  <si>
+    <t>SRR271942</t>
+  </si>
+  <si>
+    <t>STAT3KO</t>
+  </si>
+  <si>
+    <t>GSM540721</t>
+  </si>
+  <si>
+    <t>SRR271944</t>
+  </si>
+  <si>
+    <t>H3K4me3_STAT3KO_mm9_Th17Tcells_GSM540721_20493732_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE27826</t>
+  </si>
+  <si>
+    <t>CEBPb</t>
+  </si>
+  <si>
+    <t>Preadi-day0</t>
+  </si>
+  <si>
+    <t>GSM686970</t>
+  </si>
+  <si>
+    <t>SRR125324</t>
+  </si>
+  <si>
+    <t>CEBPb_Preadi-day0_mm9_3T3-L1_GSM686970_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>Preadi-2hr</t>
+  </si>
+  <si>
+    <t>GSM686971</t>
+  </si>
+  <si>
+    <t>SRR125325</t>
+  </si>
+  <si>
+    <t>CEBPb_Preadi-2hr_mm9_3T3-L1_GSM686971_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>Preadi-4hr</t>
+  </si>
+  <si>
+    <t>GSM686972</t>
+  </si>
+  <si>
+    <t>SRR125326</t>
+  </si>
+  <si>
+    <t>CEBPb_Preadi-4hr_mm9_3T3-L1_GSM686972_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>Preadi-day2</t>
+  </si>
+  <si>
+    <t>GSM686973</t>
+  </si>
+  <si>
+    <t>SRR125327</t>
+  </si>
+  <si>
+    <t>CEBPb_Preadi-day2_mm9_3T3-L1_GSM686973_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>CEBPd</t>
+  </si>
+  <si>
+    <t>GSM686974</t>
+  </si>
+  <si>
+    <t>SRR125328</t>
+  </si>
+  <si>
+    <t>CEBPd_Preadi-day0_mm9_3T3-L1_GSM686974_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM686975</t>
+  </si>
+  <si>
+    <t>SRR125329</t>
+  </si>
+  <si>
+    <t>CEBPd_Preadi-4hr_mm9_3T3-L1_GSM686975_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GSM686976</t>
+  </si>
+  <si>
+    <t>SRR125330</t>
+  </si>
+  <si>
+    <t>GR_Preadi-4hr_mm9_3T3-L1_GSM686976_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM686977</t>
+  </si>
+  <si>
+    <t>SRR125331</t>
+  </si>
+  <si>
+    <t>STAT5A_Preadi-4hr_mm9_3T3-L1_GSM686977_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>RXR</t>
+  </si>
+  <si>
+    <t>GSM686978</t>
+  </si>
+  <si>
+    <t>SRR125332</t>
+  </si>
+  <si>
+    <t>RXR_Preadi-4hr_mm9_3T3-L1_GSM686978_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>PPARg</t>
+  </si>
+  <si>
+    <t>GSM686979</t>
+  </si>
+  <si>
+    <t>SRR125333</t>
+  </si>
+  <si>
+    <t>PPARg_Preadi-day2_mm9_3T3-L1_GSM686979_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>Preadi-day6</t>
+  </si>
+  <si>
+    <t>GSM686980</t>
+  </si>
+  <si>
+    <t>SRR185831</t>
+  </si>
+  <si>
+    <t>PPARg_Preadi-day6_mm9_3T3-L1_GSM686980_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM686981</t>
+  </si>
+  <si>
+    <t>SRR125334</t>
+  </si>
+  <si>
+    <t>PolII_Preadi-day0_mm9_3T3-L1_GSM686981_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM686982</t>
+  </si>
+  <si>
+    <t>SRR125335</t>
+  </si>
+  <si>
+    <t>PolII_Preadi-4hr_mm9_3T3-L1_GSM686982_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>Preadi</t>
+  </si>
+  <si>
+    <t>GSM686983</t>
+  </si>
+  <si>
+    <t>SRR125336</t>
+  </si>
+  <si>
+    <t>Input_Preadi_mm9_3T3-L1_GSM686983_21427703_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE23681</t>
+  </si>
+  <si>
+    <t>CD4pTcells</t>
+  </si>
+  <si>
+    <t>IL6nIL23</t>
+  </si>
+  <si>
+    <t>GSM580756</t>
+  </si>
+  <si>
+    <t>SRR069061</t>
+  </si>
+  <si>
+    <t>STAT3_IL6nIL23_mm9_CD4pTcells_GSM580756_20962846_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>H3Ac</t>
+  </si>
+  <si>
+    <t>GSM580757</t>
+  </si>
+  <si>
+    <t>SRR069062</t>
+  </si>
+  <si>
+    <t>H3Ac_IL6nIL23_mm9_CD4pTcells_GSM580757_20962846_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM580758</t>
+  </si>
+  <si>
+    <t>SRR069063</t>
+  </si>
+  <si>
+    <t>H3K4me3_IL6nIL23_mm9_CD4pTcells_GSM580758_20962846_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE22104</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>GSM550303</t>
+  </si>
+  <si>
+    <t>SRR054665</t>
+  </si>
+  <si>
+    <t>STAT4_WT_mm9_Th1Tcells_GSM550303_20620946_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>S4KO</t>
+  </si>
+  <si>
+    <t>GSM550304</t>
+  </si>
+  <si>
+    <t>SRR054666</t>
+  </si>
+  <si>
+    <t>STAT4_S4KO_mm9_Th1Tcells_GSM550304_20620946_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM550305</t>
+  </si>
+  <si>
+    <t>SRR054667</t>
+  </si>
+  <si>
+    <t>H3K4me3_WT_mm9_Th1Tcells_GSM550305_20620946_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM550306</t>
+  </si>
+  <si>
+    <t>SRR054668</t>
+  </si>
+  <si>
+    <t>H3K4me3_S4KO_mm9_Th1Tcells_GSM550306_20620946_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>H3K27me3</t>
+  </si>
+  <si>
+    <t>GSM550307</t>
+  </si>
+  <si>
+    <t>SRR054669,SRR054670</t>
+  </si>
+  <si>
+    <t>H3K27me3_WT_mm9_Th1Tcells_GSM550307_20620946_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM550308</t>
+  </si>
+  <si>
+    <t>SRR054671,SRR054672</t>
+  </si>
+  <si>
+    <t>H3K27me3_S4KO_mm9_Th1Tcells_GSM550308_20620946_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>H3K36me3</t>
+  </si>
+  <si>
+    <t>GSM550309</t>
+  </si>
+  <si>
+    <t>SRR054673</t>
+  </si>
+  <si>
+    <t>GSM550310</t>
+  </si>
+  <si>
+    <t>SRR054674</t>
+  </si>
+  <si>
+    <t>STAT6</t>
+  </si>
+  <si>
+    <t>Th2Tcells</t>
+  </si>
+  <si>
+    <t>GSM550311</t>
+  </si>
+  <si>
+    <t>SRR054675</t>
+  </si>
+  <si>
+    <t>S6KO</t>
+  </si>
+  <si>
+    <t>GSM550312</t>
+  </si>
+  <si>
+    <t>SRR054676</t>
+  </si>
+  <si>
+    <t>GSM550313</t>
+  </si>
+  <si>
+    <t>SRR054677</t>
+  </si>
+  <si>
+    <t>GSM550314</t>
+  </si>
+  <si>
+    <t>SRR054678</t>
+  </si>
+  <si>
+    <t>GSM550315</t>
+  </si>
+  <si>
+    <t>SRR054679</t>
+  </si>
+  <si>
+    <t>GSM550316</t>
+  </si>
+  <si>
+    <t>SRR054680</t>
+  </si>
+  <si>
+    <t>GSM550317</t>
+  </si>
+  <si>
+    <t>SRR054681</t>
+  </si>
+  <si>
+    <t>GSM550318</t>
+  </si>
+  <si>
+    <t>SRR054682</t>
+  </si>
+  <si>
+    <t>GSE52016</t>
+  </si>
+  <si>
+    <t>E2KOp13</t>
+  </si>
+  <si>
+    <t>GSM1257545</t>
+  </si>
+  <si>
+    <t>SRR1066704</t>
+  </si>
+  <si>
+    <t>GSM1257546</t>
+  </si>
+  <si>
+    <t>SRR1066705</t>
+  </si>
+  <si>
+    <t>GSM1257547</t>
+  </si>
+  <si>
+    <t>SRR1066706</t>
+  </si>
+  <si>
+    <t>E2KOL1</t>
+  </si>
+  <si>
+    <t>GSM1257548</t>
+  </si>
+  <si>
+    <t>SRR1066707</t>
+  </si>
+  <si>
+    <t>GSM1257549</t>
+  </si>
+  <si>
+    <t>SRR1066708</t>
+  </si>
+  <si>
+    <t>GSM1257550</t>
+  </si>
+  <si>
+    <t>SRR1066709</t>
+  </si>
+  <si>
+    <t>GSM1257551</t>
+  </si>
+  <si>
+    <t>SRR1066710</t>
+  </si>
+  <si>
+    <t>GSM1257552</t>
+  </si>
+  <si>
+    <t>SRR1066711</t>
+  </si>
+  <si>
+    <t>GSM1257553</t>
+  </si>
+  <si>
+    <t>SRR1066712</t>
+  </si>
+  <si>
+    <t>GSE37235</t>
+  </si>
+  <si>
+    <t>ArT-20</t>
+  </si>
+  <si>
+    <t>GSM926623</t>
+  </si>
+  <si>
+    <t>SRR493724,SRR493725</t>
+  </si>
+  <si>
+    <t>IgG_pooled_mm9_AtT-20cells_GSM926623_22633955_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>LIF</t>
+  </si>
+  <si>
+    <t>GSM926624</t>
+  </si>
+  <si>
+    <t>SRR493726,SRR493727</t>
+  </si>
+  <si>
+    <t>STAT3_LIF_mm9_AtT-20cells_GSM926624_22633955_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>DEXnLIF</t>
+  </si>
+  <si>
+    <t>GSM926625</t>
+  </si>
+  <si>
+    <t>SRR493728,SRR493729,SRR493730</t>
+  </si>
+  <si>
+    <t>STAT3_DEXnLIF_mm9_AtT-20cells_GSM926625_22633955_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSM926626</t>
+  </si>
+  <si>
+    <t>SRR493731,SRR493732</t>
+  </si>
+  <si>
+    <t>GR_DEXnLIF_mm9_AtT-20cells_GSM926626_22633955_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>GSM926627</t>
+  </si>
+  <si>
+    <t>SRR493733,SRR493734</t>
+  </si>
+  <si>
+    <t>GR_DEX_mm9_AtT-20cells_GSM926627_22633955_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>GSE26552</t>
+  </si>
+  <si>
+    <t>SpleenLymph</t>
+  </si>
+  <si>
+    <t>GSM652877</t>
+  </si>
+  <si>
+    <t>SRR091648</t>
+  </si>
+  <si>
+    <t>STAT3_SpleenLymph_mm9_Th17Tcells_GSM652877_21278738_HM.ucsc.bigWig</t>
+  </si>
+  <si>
+    <t>STAT5</t>
+  </si>
+  <si>
+    <t>GSM652878</t>
+  </si>
+  <si>
+    <t>SRR091649</t>
+  </si>
+  <si>
+    <t>STAT5_SpleenLymph_mm9_Th17Tcells_GSM652878_21278738_HM.ucsc.bigWig</t>
   </si>
 </sst>
 </file>
@@ -740,10 +1790,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H56"/>
+  <dimension ref="A2:H176"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -752,8 +1802,9 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3004694835681"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2112676056338"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6478873239437"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5774647887324"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.6009389671362"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6103286384977"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4037558685446"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6009389671362"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,10 +2640,13 @@
       <c r="G39" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="H39" s="0" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>89</v>
@@ -1601,42 +2655,42 @@
         <v>10</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,19 +2701,19 @@
         <v>10</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,19 +2724,19 @@
         <v>10</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,19 +2747,19 @@
         <v>10</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,19 +2770,19 @@
         <v>10</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,19 +2793,19 @@
         <v>10</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,180 +2816,2502 @@
         <v>10</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="C69" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>198</v>
+      <c r="E117" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="G167" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="H167" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="H175" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="H176" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/Octopus_list.xlsx
+++ b/Octopus_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="558">
   <si>
     <t>Study</t>
   </si>
@@ -1526,18 +1526,27 @@
     <t>SRR1066704</t>
   </si>
   <si>
+    <t>H3K27me3_E2KOp13_mm9_Mammary_GSM1257545_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>GSM1257546</t>
   </si>
   <si>
     <t>SRR1066705</t>
   </si>
   <si>
+    <t>H3K27me3_p13_mm9_Mammary_GSM1257546_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>GSM1257547</t>
   </si>
   <si>
     <t>SRR1066706</t>
   </si>
   <si>
+    <t>Input_p13_mm9_Mammary_GSM1257547_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>E2KOL1</t>
   </si>
   <si>
@@ -1547,34 +1556,52 @@
     <t>SRR1066707</t>
   </si>
   <si>
+    <t>STAT5A_E2KOL1_mm9_Mammary_GSM1257548_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>GSM1257549</t>
   </si>
   <si>
     <t>SRR1066708</t>
   </si>
   <si>
+    <t>STAT5A_L1_mm9_Mammary_GSM1257549_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>GSM1257550</t>
   </si>
   <si>
     <t>SRR1066709</t>
   </si>
   <si>
+    <t>Input_L1_mm9_Mammary_GSM1257550_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>GSM1257551</t>
   </si>
   <si>
     <t>SRR1066710</t>
   </si>
   <si>
+    <t>H3K4me3_E2KOp13_mm9_MECs_GSM1257551_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>GSM1257552</t>
   </si>
   <si>
     <t>SRR1066711</t>
   </si>
   <si>
+    <t>H3K4me3_p13_mm9_MECs_GSM1257552_na_HM.ucsc.bigWig</t>
+  </si>
+  <si>
     <t>GSM1257553</t>
   </si>
   <si>
     <t>SRR1066712</t>
+  </si>
+  <si>
+    <t>Input_p13_mm9_MECs_GSM1257553_na_HM.ucsc.bigWig</t>
   </si>
   <si>
     <t>GSE37235</t>
@@ -1793,7 +1820,7 @@
   <dimension ref="A2:H176"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141"/>
+      <selection pane="topLeft" activeCell="M150" activeCellId="0" sqref="M150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4986,6 +5013,9 @@
       <c r="G153" s="0" t="s">
         <v>502</v>
       </c>
+      <c r="H153" s="0" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="0" t="s">
@@ -5001,10 +5031,13 @@
         <v>338</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,10 +5054,13 @@
         <v>338</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,13 +5074,16 @@
         <v>202</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,10 +5100,13 @@
         <v>203</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,10 +5123,13 @@
         <v>203</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>513</v>
+        <v>518</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,10 +5146,13 @@
         <v>500</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,10 +5169,13 @@
         <v>338</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>517</v>
+        <v>524</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,15 +5192,18 @@
         <v>338</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>74</v>
@@ -5158,19 +5212,19 @@
         <v>10</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E163" s="0" t="s">
         <v>203</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,19 +5235,19 @@
         <v>10</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,19 +5258,19 @@
         <v>10</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,19 +5281,19 @@
         <v>10</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5250,24 +5304,24 @@
         <v>10</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>79</v>
@@ -5279,21 +5333,21 @@
         <v>376</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>10</v>
@@ -5302,16 +5356,16 @@
         <v>376</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
